--- a/Question_Set2/Software skills/PostgreSQL.xlsx
+++ b/Question_Set2/Software skills/PostgreSQL.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You just finished the installation of a PostgreSQL server that’s now up and running. One of your team members tries to access the server and encounters the error:psql: error: FATAL: role “gorilla” does not exist. As a database administrator, you must create this role gorilla with a password. Which of the following statements should you execute to solve the problem?', 'ques_type': 2, 'options': ["create user gorilla with encrypted password 'P@$$word' LOGIN", "create gorilla with encrypted password 'P@$$word'", "add gorilla with encrypted password 'P@$$word'", "add role gorilla encrypted password ='P@$$word'"], 'score': "create user gorilla with encrypted password 'P@$$word' LOGIN"}, {'title': 'As a database administrator, you compiled and installed a PostgreSQL server for a web hosting company. You now must manually start the server in the background. The environment variable PGDATA is not set, and the company’s data is stored on /usr/local/pgsql/companydata. Which of the following statements should you use to start the PostgreSQL server in the background?', 'ques_type': 2, 'options': ['service postgres start -D /usr/local/pgsql/companydata', 'postgres.service start -D /usr/local/pgsql/companydata', 'postgres -D /usr/local/pgsql/companydata &amp;gtlogfile 2&amp;gt&amp;amp1 &amp;amp', 'postgres -D /usr/local/pgsql/companydata &amp;gtlogfile 1&amp;gt&amp;amp2 '], 'score': 'postgres -D /usr/local/pgsql/companydata &amp;gtlogfile 2&amp;gt&amp;amp1 &amp;amp'}, {'title': 'You are implementing streaming replication on two PostgreSQL servers: the master and the standby server. The other details are as follows: Master server IP: 192.168.10.1Standby server IP: 192.168.10.2Required mode of replication: ASYNCPostgreSQL server version: 12 How should you modify the configuration file on the master server to implement this replication?', 'ques_type': 2, 'options': ['Append the pg_hba.conf file with:host  replication   all  192.168.10.2/32', 'Append the pg_hba.conf file with:host  replication   all  192.168.10.2/24', 'Append the pg_hba.conf file with:host  replication   all  192.168.10.1/16', 'Append the pg_hba.conf file with:host  replication   all  192.168.10.1/32'], 'score': 'Append the pg_hba.conf file with:host  replication   all  192.168.10.2/32'}, {'title': 'As a database administrator, you are checking events in the event collector for your PostgreSQL server. You want to execute an SQL query to return not null values for the process IDs, types of wait events, and event names. Which of the following statements should you use to return the required data from the event collector for PostgreSQL activities statistics?', 'ques_type': 2, 'options': ['SELECT pid, wait_event_type, wait_event FROM pg_stat_activity WHERE wait_event is NOT NULL', 'SELECT pid, wait_event_type, wait_event FROM pg_stat_activity', 'SELECT * FROM pg_stat_activity WHERE wait_event is NOT NULL', 'SELECT pid, wait_event_type, wait_event FROM pg_stat_archiver WHERE wait_event is NOT NULL'], 'score': 'SELECT pid, wait_event_type, wait_event FROM pg_stat_activity WHERE wait_event is NOT NULL'}]</t>
+    <t>questions = [
+    {
+        "title": "You just finished the installation of a PostgreSQL server that\u2019s now up and running. One of your team members tries to access the server and encounters the error:psql: error: FATAL: role \u201cgorilla\u201d does not exist. As a database administrator, you must create this role gorilla with a password. Which of the following statements should you execute to solve the problem?",
+        "ques_type": 2,
+        "options": [
+            "create user gorilla with encrypted password 'P@$$word' LOGIN",
+            "create gorilla with encrypted password 'P@$$word'",
+            "add gorilla with encrypted password 'P@$$word'",
+            "add role gorilla encrypted password ='P@$$word'"
+        ],
+        "score": "create user gorilla with encrypted password 'P@$$word' LOGIN"
+    },
+    {
+        "title": "As a database administrator, you compiled and installed a PostgreSQL server for a web hosting company. You now must manually start the server in the background. The environment variable PGDATA is not set, and the company\u2019s data is stored on /usr/local/pgsql/companydata. Which of the following statements should you use to start the PostgreSQL server in the background?",
+        "ques_type": 2,
+        "options": [
+            "service postgres start -D /usr/local/pgsql/companydata",
+            "postgres.service start -D /usr/local/pgsql/companydata",
+            "postgres -D /usr/local/pgsql/companydata &amp;gtlogfile 2&amp;gt&amp;amp1 &amp;amp",
+            "postgres -D /usr/local/pgsql/companydata &amp;gtlogfile 1&amp;gt&amp;amp2 "
+        ],
+        "score": "postgres -D /usr/local/pgsql/companydata &amp;gtlogfile 2&amp;gt&amp;amp1 &amp;amp"
+    },
+    {
+        "title": "You are implementing streaming replication on two PostgreSQL servers: the master and the standby server. The other details are as follows: Master server IP: 192.168.10.1Standby server IP: 192.168.10.2Required mode of replication: ASYNCPostgreSQL server version: 12 How should you modify the configuration file on the master server to implement this replication?",
+        "ques_type": 2,
+        "options": [
+            "Append the pg_hba.conf file with:host  replication   all  192.168.10.2/32",
+            "Append the pg_hba.conf file with:host  replication   all  192.168.10.2/24",
+            "Append the pg_hba.conf file with:host  replication   all  192.168.10.1/16",
+            "Append the pg_hba.conf file with:host  replication   all  192.168.10.1/32"
+        ],
+        "score": "Append the pg_hba.conf file with:host  replication   all  192.168.10.2/32"
+    },
+    {
+        "title": "As a database administrator, you are checking events in the event collector for your PostgreSQL server. You want to execute an SQL query to return not null values for the process IDs, types of wait events, and event names. Which of the following statements should you use to return the required data from the event collector for PostgreSQL activities statistics?",
+        "ques_type": 2,
+        "options": [
+            "SELECT pid, wait_event_type, wait_event FROM pg_stat_activity WHERE wait_event is NOT NULL",
+            "SELECT pid, wait_event_type, wait_event FROM pg_stat_activity",
+            "SELECT * FROM pg_stat_activity WHERE wait_event is NOT NULL",
+            "SELECT pid, wait_event_type, wait_event FROM pg_stat_archiver WHERE wait_event is NOT NULL"
+        ],
+        "score": "SELECT pid, wait_event_type, wait_event FROM pg_stat_activity WHERE wait_event is NOT NULL"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
